--- a/isa/RovLink_Lite.xlsx
+++ b/isa/RovLink_Lite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\FinNAV\RovLink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\RovLink\isa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCD6E9-590B-47A2-AFC7-FEC42CEDF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22856B91-F5A1-4A49-BAA3-DBC807B784F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-8168" windowWidth="28995" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t>十六进制指示对应的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,19 +421,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数值范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I|D|V|S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Compressed Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opcode 4bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zigzag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fp16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8 *3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint10 *3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,15 +622,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -630,10 +633,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -914,672 +926,788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP18"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+      <c r="R5" s="1">
+        <v>16</v>
+      </c>
+      <c r="S5" s="1">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1">
+        <v>19</v>
+      </c>
+      <c r="V5" s="1">
+        <v>20</v>
+      </c>
+      <c r="W5" s="1">
+        <v>21</v>
+      </c>
+      <c r="X5" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="3"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="K2" s="10"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="F34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="H34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="I34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="K34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="L34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="M34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="N34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="O34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="P34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="Q34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="R34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="K3" s="4"/>
-      <c r="Y3" s="4" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="G35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="H35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="I35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="J35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="K35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="L35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="M35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="N35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="O35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="Y4" s="4" t="s">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="R36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="Y5" s="4" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="6" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="G37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="H37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="I37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="J37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="K37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="L37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="M37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="6" t="s">
+      <c r="N37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="O37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AN5" s="6" t="s">
+      <c r="P37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y6" s="4" t="s">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y7" s="4" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="6" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="E39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y8" s="4" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="G40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="H40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y9" s="4" t="s">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="E41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y10" s="4" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="6" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y11" s="4" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="6" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="E43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="G43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="s">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y13" s="4" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="E45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="F45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AE13" s="6" t="s">
+      <c r="G45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y14" s="4" t="s">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="6" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="E46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="F46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="G46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="H46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="I46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH14" s="6" t="s">
+      <c r="J46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AI14" s="6" t="s">
+      <c r="K46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="L46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="M46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="s">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-    </row>
-    <row r="17" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-    </row>
-    <row r="18" spans="25:42" x14ac:dyDescent="0.25">
-      <c r="Y18" s="4" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="6" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="3" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Y1:AP1"/>
+    <mergeCell ref="A33:R33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
